--- a/second-order/1893/December1893.xlsx
+++ b/second-order/1893/December1893.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27914"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://metoffice-my.sharepoint.com/personal/catherine_ross_metoffice_gov_uk/Documents/2nd Order Stations/1893/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14654" documentId="13_ncr:1_{524B5A69-443F-467E-97C8-A8C6927BFEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{186937EE-DF29-4FC5-95FD-AD37645C646A}"/>
+  <xr:revisionPtr revIDLastSave="15403" documentId="13_ncr:1_{524B5A69-443F-467E-97C8-A8C6927BFEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD78005B-34B9-4D90-BA12-CAE12B6CF4A9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="989" firstSheet="20" activeTab="13" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="989" firstSheet="12" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Deerness" sheetId="15" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3606" uniqueCount="92">
   <si>
     <t>Barometer</t>
   </si>
@@ -187,10 +187,16 @@
     <t>Braemar</t>
   </si>
   <si>
+    <t>Mean 28.487</t>
+  </si>
+  <si>
     <t>Laudale</t>
   </si>
   <si>
     <t>Dundee</t>
+  </si>
+  <si>
+    <t>Mean 29.525</t>
   </si>
   <si>
     <t>Glasgow</t>
@@ -199,7 +205,19 @@
     <t>Wolfelee</t>
   </si>
   <si>
+    <t>Mean 29.117</t>
+  </si>
+  <si>
+    <t>Mean 29.144</t>
+  </si>
+  <si>
     <t>Scarborough</t>
+  </si>
+  <si>
+    <t>Mean 29.666</t>
+  </si>
+  <si>
+    <t>Mean 29.670</t>
   </si>
   <si>
     <t>Cronkbourne</t>
@@ -229,6 +247,12 @@
     <t>1-2</t>
   </si>
   <si>
+    <t>Mean 29.671</t>
+  </si>
+  <si>
+    <t>Mean 29.708</t>
+  </si>
+  <si>
     <t>Stonyhurst</t>
   </si>
   <si>
@@ -250,6 +274,9 @@
     <t>SEbyS</t>
   </si>
   <si>
+    <t>Mean 29.470</t>
+  </si>
+  <si>
     <t>Hillington</t>
   </si>
   <si>
@@ -259,7 +286,13 @@
     <t>Carmarthen</t>
   </si>
   <si>
+    <t>Mean 29.720</t>
+  </si>
+  <si>
     <t>Margate</t>
+  </si>
+  <si>
+    <t>Mean 29.937</t>
   </si>
   <si>
     <t>Southampton</t>
@@ -268,13 +301,22 @@
     <t>ENE</t>
   </si>
   <si>
+    <t>mean 29.960</t>
+  </si>
+  <si>
     <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Mean 29.854</t>
   </si>
   <si>
     <t>Londonderry</t>
   </si>
   <si>
     <t>Armagh</t>
+  </si>
+  <si>
+    <t>Mean 29.553</t>
   </si>
   <si>
     <t>Markree Castle</t>
@@ -284,6 +326,12 @@
   </si>
   <si>
     <t>Parsonstown</t>
+  </si>
+  <si>
+    <t>mean 29.639</t>
+  </si>
+  <si>
+    <t>mean 29.704</t>
   </si>
 </sst>
 </file>
@@ -925,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4108655-B436-409A-BEA1-C15E2C901F28}">
   <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="D23" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3348,10 +3396,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F58535-F46B-4397-857F-B5B0AFE46BF9}">
-  <dimension ref="A2:W36"/>
+  <dimension ref="A2:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="O7" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3490,7 +3538,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -3538,7 +3586,7 @@
         <v>42</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="R5" s="1">
         <v>2</v>
@@ -3561,7 +3609,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -3632,7 +3680,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -3680,7 +3728,7 @@
         <v>96</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="R7" s="1">
         <v>3</v>
@@ -3703,7 +3751,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -3774,7 +3822,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -3828,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="T9" s="6">
         <v>3</v>
@@ -3845,7 +3893,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -3893,7 +3941,7 @@
         <v>89</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="R10" s="1">
         <v>3</v>
@@ -3916,7 +3964,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -3964,7 +4012,7 @@
         <v>86</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="R11" s="1">
         <v>4</v>
@@ -3987,7 +4035,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -4035,13 +4083,13 @@
         <v>81</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="R12" s="1">
         <v>5</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="T12" s="6">
         <v>2</v>
@@ -4058,7 +4106,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -4129,7 +4177,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -4177,13 +4225,13 @@
         <v>76</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R14" s="1">
         <v>2</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="T14" s="6">
         <v>2</v>
@@ -4200,7 +4248,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -4271,7 +4319,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -4319,7 +4367,7 @@
         <v>95</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="R16" s="1">
         <v>1</v>
@@ -4342,7 +4390,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -4413,7 +4461,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -4484,7 +4532,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -4555,7 +4603,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -4626,7 +4674,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -4697,7 +4745,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -4745,7 +4793,7 @@
         <v>93</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="R22" s="1">
         <v>2</v>
@@ -4768,7 +4816,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -4816,13 +4864,13 @@
         <v>90</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="R23" s="1">
         <v>1</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="T23" s="6">
         <v>2</v>
@@ -4839,7 +4887,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -4910,7 +4958,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -4964,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="T25" s="6">
         <v>3</v>
@@ -4981,7 +5029,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -5035,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="T26" s="6">
         <v>2</v>
@@ -5052,7 +5100,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -5123,7 +5171,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -5177,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="T28" s="6">
         <v>4</v>
@@ -5194,7 +5242,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -5265,7 +5313,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -5336,7 +5384,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -5407,7 +5455,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -5478,7 +5526,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -5549,7 +5597,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -5620,7 +5668,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -5668,7 +5716,7 @@
         <v>96</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="R35" s="8">
         <v>1</v>
@@ -5752,6 +5800,11 @@
       </c>
       <c r="W36" s="17">
         <v>4.9169999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="E37" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5774,8 +5827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6247AB03-F025-446C-8D2D-1CBADED51F88}">
   <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="O12" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5914,7 +5967,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -5985,7 +6038,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -6056,7 +6109,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -6127,7 +6180,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -6198,7 +6251,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -6269,7 +6322,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -6340,7 +6393,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -6411,7 +6464,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -6482,7 +6535,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -6553,7 +6606,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -6624,7 +6677,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -6695,7 +6748,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -6766,7 +6819,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -6837,7 +6890,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -6908,7 +6961,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -6979,7 +7032,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -7050,7 +7103,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -7121,7 +7174,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -7192,7 +7245,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -7263,7 +7316,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -7334,7 +7387,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -7405,7 +7458,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -7476,7 +7529,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -7547,7 +7600,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -7618,7 +7671,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -7689,7 +7742,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -7760,7 +7813,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -7831,7 +7884,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -7902,7 +7955,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -7973,7 +8026,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -8044,7 +8097,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -8198,8 +8251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD0F272-B8A4-46FC-A472-771D73413392}">
   <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="D34" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="L14" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8338,7 +8391,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -8409,7 +8462,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -8480,7 +8533,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -8551,7 +8604,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -8622,7 +8675,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -8693,7 +8746,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -8764,7 +8817,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -8835,7 +8888,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -8906,7 +8959,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -8977,7 +9030,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -9048,7 +9101,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -9119,7 +9172,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -9190,7 +9243,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -9261,7 +9314,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -9332,7 +9385,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -9403,7 +9456,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -9474,7 +9527,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -9545,7 +9598,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -9616,7 +9669,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -9687,7 +9740,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -9758,7 +9811,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -9829,7 +9882,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -9900,7 +9953,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -9971,7 +10024,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -10042,7 +10095,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -10113,7 +10166,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -10184,7 +10237,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -10255,7 +10308,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -10326,7 +10379,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -10397,7 +10450,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -10468,7 +10521,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -10620,10 +10673,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD84A6CC-49D4-47FD-9DBF-F07FCE349F1A}">
-  <dimension ref="A2:W36"/>
+  <dimension ref="A2:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="D35" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10763,7 +10816,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -10834,7 +10887,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -10905,7 +10958,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -10976,7 +11029,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -11047,7 +11100,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -11118,7 +11171,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -11189,7 +11242,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -11260,7 +11313,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -11331,7 +11384,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -11402,7 +11455,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -11473,7 +11526,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -11544,7 +11597,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -11615,7 +11668,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -11686,7 +11739,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -11757,7 +11810,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -11828,7 +11881,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -11899,7 +11952,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -11970,7 +12023,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -12041,7 +12094,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -12112,7 +12165,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -12183,7 +12236,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -12254,7 +12307,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -12325,7 +12378,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -12396,7 +12449,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -12467,7 +12520,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -12538,7 +12591,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -12609,7 +12662,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -12680,7 +12733,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -12751,7 +12804,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -12822,7 +12875,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -12893,7 +12946,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -13025,6 +13078,11 @@
       </c>
       <c r="W36" s="17">
         <v>6.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="E37" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -13045,10 +13103,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F522100-1AF0-43D4-A080-F24B7139868C}">
-  <dimension ref="A2:W36"/>
+  <dimension ref="A2:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D23" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13187,7 +13245,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -13258,7 +13316,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -13329,7 +13387,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -13400,7 +13458,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -13471,7 +13529,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -13542,7 +13600,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -13613,7 +13671,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -13684,7 +13742,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -13755,7 +13813,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -13826,7 +13884,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -13897,7 +13955,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -13968,7 +14026,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -14039,7 +14097,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -14110,7 +14168,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -14181,7 +14239,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -14252,7 +14310,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -14323,7 +14381,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -14394,7 +14452,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -14465,7 +14523,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -14536,7 +14594,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -14607,7 +14665,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -14678,7 +14736,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -14749,7 +14807,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -14820,7 +14878,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -14891,7 +14949,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -14962,7 +15020,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -15033,7 +15091,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -15104,7 +15162,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -15175,7 +15233,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -15246,7 +15304,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -15317,7 +15375,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -15449,6 +15507,11 @@
       </c>
       <c r="W36" s="17">
         <v>2.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="E37" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -15469,10 +15532,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42ABBC7C-B157-4A4E-8414-C98E473BD393}">
-  <dimension ref="A2:W36"/>
+  <dimension ref="A2:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="Q10" workbookViewId="0">
+      <selection activeCell="AS37" sqref="AS37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15611,7 +15674,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -15682,7 +15745,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -15753,7 +15816,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -15824,7 +15887,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -15895,7 +15958,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -15966,7 +16029,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -16037,7 +16100,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -16108,7 +16171,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -16179,7 +16242,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -16250,7 +16313,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -16321,7 +16384,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -16392,7 +16455,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -16463,7 +16526,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -16534,7 +16597,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -16605,7 +16668,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -16676,7 +16739,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -16747,7 +16810,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -16818,7 +16881,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -16889,7 +16952,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -16960,7 +17023,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -17031,7 +17094,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -17102,7 +17165,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -17173,7 +17236,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -17244,7 +17307,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -17315,7 +17378,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -17386,7 +17449,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -17457,7 +17520,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -17505,7 +17568,7 @@
         <v>97</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R31" s="1">
         <v>1</v>
@@ -17528,7 +17591,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -17599,7 +17662,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -17653,7 +17716,7 @@
         <v>2</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="T33" s="6">
         <v>1</v>
@@ -17670,7 +17733,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -17741,7 +17804,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -17873,6 +17936,11 @@
       </c>
       <c r="W36" s="17">
         <v>3.093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="F37" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -17893,10 +17961,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D9C1B2-8C1C-4225-9D26-AF6DAC2640AF}">
-  <dimension ref="A2:W36"/>
+  <dimension ref="A2:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="D29" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="K20" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18035,7 +18103,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -18106,7 +18174,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -18177,7 +18245,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -18248,7 +18316,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -18319,7 +18387,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -18367,7 +18435,7 @@
         <v>86</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>24</v>
@@ -18390,7 +18458,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -18444,7 +18512,7 @@
         <v>24</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>24</v>
@@ -18461,7 +18529,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -18532,7 +18600,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -18603,7 +18671,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -18674,7 +18742,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -18745,7 +18813,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -18816,7 +18884,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -18887,7 +18955,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -18958,7 +19026,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -19029,7 +19097,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -19100,7 +19168,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -19171,7 +19239,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -19242,7 +19310,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -19313,7 +19381,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -19384,7 +19452,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -19455,7 +19523,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -19515,7 +19583,7 @@
         <v>24</v>
       </c>
       <c r="U25" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V25" s="1">
         <v>0</v>
@@ -19526,7 +19594,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -19597,7 +19665,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -19668,7 +19736,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -19739,7 +19807,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -19810,7 +19878,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -19881,7 +19949,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -19952,7 +20020,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -20023,7 +20091,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -20077,7 +20145,7 @@
         <v>24</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="T33" s="6" t="s">
         <v>24</v>
@@ -20094,7 +20162,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -20148,7 +20216,7 @@
         <v>24</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="T34" s="6" t="s">
         <v>24</v>
@@ -20165,7 +20233,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -20297,6 +20365,11 @@
       </c>
       <c r="W36" s="17">
         <v>4.3390000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="F37" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -20319,8 +20392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B53C70-E59B-4757-99CF-9D169C92385B}">
   <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="D24" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="K19" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20459,7 +20532,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -20530,7 +20603,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -20601,7 +20674,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -20672,7 +20745,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -20743,7 +20816,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -20814,7 +20887,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -20885,7 +20958,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -20956,7 +21029,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -21027,7 +21100,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -21098,7 +21171,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -21169,7 +21242,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -21240,7 +21313,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -21311,7 +21384,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -21382,7 +21455,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -21453,7 +21526,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -21524,7 +21597,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -21595,7 +21668,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -21666,7 +21739,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -21737,7 +21810,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -21808,7 +21881,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -21879,7 +21952,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -21950,7 +22023,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -22021,7 +22094,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -22092,7 +22165,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -22163,7 +22236,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -22234,7 +22307,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -22305,7 +22378,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -22376,7 +22449,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -22447,7 +22520,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -22518,7 +22591,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -22589,7 +22662,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -22741,10 +22814,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5AAE48-C411-4E25-8B1D-2232EA02C65B}">
-  <dimension ref="A2:W36"/>
+  <dimension ref="A2:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22883,7 +22956,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -22954,7 +23027,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -23025,7 +23098,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -23096,7 +23169,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -23167,7 +23240,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -23238,7 +23311,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -23309,7 +23382,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -23380,7 +23453,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -23451,7 +23524,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -23522,7 +23595,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -23593,7 +23666,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -23664,7 +23737,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -23735,7 +23808,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -23806,7 +23879,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -23877,7 +23950,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -23948,7 +24021,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -24019,7 +24092,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -24090,7 +24163,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -24161,7 +24234,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -24232,7 +24305,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -24303,7 +24376,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -24374,7 +24447,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -24445,7 +24518,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -24516,7 +24589,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -24587,7 +24660,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -24658,7 +24731,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -24729,7 +24802,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -24800,7 +24873,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -24871,7 +24944,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -24942,7 +25015,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -25013,7 +25086,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -25145,6 +25218,11 @@
       </c>
       <c r="W36" s="17">
         <v>2.802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="E37" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -25167,8 +25245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E413A142-C323-471B-8DE8-71C83ABC936E}">
   <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="N17" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25307,7 +25385,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -25378,7 +25456,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -25449,7 +25527,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -25520,7 +25598,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -25591,7 +25669,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -25662,7 +25740,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -25733,7 +25811,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -25804,7 +25882,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -25875,7 +25953,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -25946,7 +26024,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -26017,7 +26095,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -26088,7 +26166,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -26159,7 +26237,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -26230,7 +26308,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -26301,7 +26379,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -26372,7 +26450,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -26443,7 +26521,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -26514,7 +26592,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -26585,7 +26663,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -26656,7 +26734,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -26727,7 +26805,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -26798,7 +26876,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -26869,7 +26947,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -26940,7 +27018,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -27011,7 +27089,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -27082,7 +27160,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -27153,7 +27231,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -27224,7 +27302,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -27295,7 +27373,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -27366,7 +27444,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -27437,7 +27515,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -27591,8 +27669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB82F61C-05AA-4FA3-BD74-74225C388CDC}">
   <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="D26" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30015,8 +30093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBA7423-C2C7-4634-AC7C-BDA41601DD7D}">
   <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30155,7 +30233,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -30226,7 +30304,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -30297,7 +30375,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -30368,7 +30446,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -30439,7 +30517,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -30510,7 +30588,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -30581,7 +30659,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -30652,7 +30730,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -30723,7 +30801,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -30794,7 +30872,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -30865,7 +30943,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -30936,7 +31014,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -31007,7 +31085,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -31078,7 +31156,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -31149,7 +31227,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -31220,7 +31298,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -31291,7 +31369,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -31362,7 +31440,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -31433,7 +31511,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -31504,7 +31582,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -31575,7 +31653,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -31646,7 +31724,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -31717,7 +31795,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -31788,7 +31866,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -31859,7 +31937,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -31930,7 +32008,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -32001,7 +32079,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -32072,7 +32150,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -32143,7 +32221,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -32214,7 +32292,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -32285,7 +32363,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -32437,10 +32515,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0278F3C-D8F2-4AEA-9D02-7DEF220B388F}">
-  <dimension ref="A2:W36"/>
+  <dimension ref="A2:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="D23" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="J17" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32579,7 +32657,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -32650,7 +32728,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -32721,7 +32799,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -32792,7 +32870,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -32863,7 +32941,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -32934,7 +33012,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -33005,7 +33083,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -33076,7 +33154,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -33147,7 +33225,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -33218,7 +33296,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -33289,7 +33367,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -33360,7 +33438,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -33431,7 +33509,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -33502,7 +33580,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -33573,7 +33651,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -33644,7 +33722,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -33715,7 +33793,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -33786,7 +33864,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -33857,7 +33935,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -33928,7 +34006,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -33999,7 +34077,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -34070,7 +34148,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -34141,7 +34219,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -34212,7 +34290,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -34283,7 +34361,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -34354,7 +34432,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -34425,7 +34503,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -34479,7 +34557,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="T31" s="6">
         <v>1</v>
@@ -34496,7 +34574,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -34550,7 +34628,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="T32" s="6">
         <v>1</v>
@@ -34567,7 +34645,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -34638,7 +34716,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -34709,7 +34787,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -34841,6 +34919,14 @@
       </c>
       <c r="W36" s="17">
         <v>3.9780000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -34862,10 +34948,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CBB8FD-655A-4863-88F4-7CCF8E717079}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:W36"/>
+  <dimension ref="A2:XFD37"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="K7" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -36996,7 +37082,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23 16384:16384">
       <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
@@ -37067,7 +37153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23 16384:16384">
       <c r="A34" s="5" t="s">
         <v>42</v>
       </c>
@@ -37138,7 +37224,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23 16384:16384">
       <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
@@ -37209,7 +37295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23 16384:16384">
       <c r="A36" s="14"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -37273,6 +37359,28 @@
       <c r="W36" s="17">
         <v>3.82</v>
       </c>
+    </row>
+    <row r="37" spans="1:23 16384:16384">
+      <c r="E37"/>
+      <c r="F37" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="R37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="XFD37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -37295,8 +37403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85204B69-BD73-463D-846C-48564885D419}">
   <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="J12" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -37435,7 +37543,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -37506,7 +37614,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -37577,7 +37685,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -37648,7 +37756,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -37719,7 +37827,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -37790,7 +37898,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -37861,7 +37969,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -37932,7 +38040,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -38003,7 +38111,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -38074,7 +38182,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -38145,7 +38253,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -38216,7 +38324,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -38287,7 +38395,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -38358,7 +38466,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -38429,7 +38537,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -38500,7 +38608,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -38571,7 +38679,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -38642,7 +38750,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -38713,7 +38821,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -38784,7 +38892,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -38855,7 +38963,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -38926,7 +39034,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -38997,7 +39105,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -39068,7 +39176,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -39139,7 +39247,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -39210,7 +39318,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -39281,7 +39389,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -39352,7 +39460,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -39423,7 +39531,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -39494,7 +39602,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -39565,7 +39673,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -39717,10 +39825,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8320C5D-44A6-4787-84A6-B2499FADF3C6}">
-  <dimension ref="A2:W36"/>
+  <dimension ref="A2:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="U22" workbookViewId="0">
-      <selection activeCell="AM37" sqref="AM37"/>
+    <sheetView topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39859,7 +39967,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -39930,7 +40038,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -40001,7 +40109,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -40072,7 +40180,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -40143,7 +40251,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -40214,7 +40322,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -40285,7 +40393,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -40356,7 +40464,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -40427,7 +40535,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -40498,7 +40606,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -40569,7 +40677,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -40640,7 +40748,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -40711,7 +40819,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -40782,7 +40890,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -40853,7 +40961,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -40924,7 +41032,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -40995,7 +41103,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -41066,7 +41174,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -41137,7 +41245,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -41208,7 +41316,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -41279,7 +41387,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -41350,7 +41458,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -41421,7 +41529,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -41492,7 +41600,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -41563,7 +41671,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -41634,7 +41742,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -41705,7 +41813,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -41776,7 +41884,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -41847,7 +41955,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -41918,7 +42026,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -41989,7 +42097,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -42121,6 +42229,11 @@
       </c>
       <c r="W36" s="17">
         <v>2.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="E37" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -42143,8 +42256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D07B89-795F-47D1-B9D9-3952301305F5}">
   <dimension ref="A2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="J12" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -42283,7 +42396,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -42354,7 +42467,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -42425,7 +42538,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -42496,7 +42609,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -42567,7 +42680,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -42638,7 +42751,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -42709,7 +42822,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -42780,7 +42893,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -42851,7 +42964,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -42922,7 +43035,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -42993,7 +43106,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -43064,7 +43177,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -43135,7 +43248,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -43206,7 +43319,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -43277,7 +43390,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -43348,7 +43461,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -43419,7 +43532,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -43490,7 +43603,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -43561,7 +43674,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -43632,7 +43745,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -43703,7 +43816,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -43774,7 +43887,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -43845,7 +43958,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -43916,7 +44029,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -43987,7 +44100,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -44058,7 +44171,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -44129,7 +44242,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -44200,7 +44313,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -44271,7 +44384,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -44342,7 +44455,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -44413,7 +44526,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -44565,10 +44678,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3123BD-0C11-44C5-98B9-64CC39BFEE8C}">
-  <dimension ref="A2:W36"/>
+  <dimension ref="A2:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="P25" workbookViewId="0">
-      <selection activeCell="AG37" sqref="AG37"/>
+    <sheetView topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44707,7 +44820,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -44778,7 +44891,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -44849,7 +44962,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -44920,7 +45033,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -44991,7 +45104,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -45062,7 +45175,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -45133,7 +45246,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -45204,7 +45317,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -45275,7 +45388,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -45346,7 +45459,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -45417,7 +45530,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -45488,7 +45601,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -45559,7 +45672,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -45630,7 +45743,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -45701,7 +45814,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -45772,7 +45885,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -45843,7 +45956,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -45914,7 +46027,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -45985,7 +46098,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -46056,7 +46169,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -46127,7 +46240,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -46198,7 +46311,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -46269,7 +46382,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -46340,7 +46453,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -46411,7 +46524,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -46482,7 +46595,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -46553,7 +46666,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -46624,7 +46737,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -46695,7 +46808,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -46766,7 +46879,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -46837,7 +46950,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -46969,6 +47082,14 @@
       </c>
       <c r="W36" s="17">
         <v>5.53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -46989,10 +47110,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2E6BE9-1CB1-46BB-B103-F378C28219E9}">
-  <dimension ref="A2:W36"/>
+  <dimension ref="A2:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="N7" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -47131,7 +47252,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -47202,7 +47323,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -47273,7 +47394,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -47344,7 +47465,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -47415,7 +47536,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -47486,7 +47607,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -47557,7 +47678,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -47628,7 +47749,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -47699,7 +47820,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -47770,7 +47891,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -47841,7 +47962,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -47912,7 +48033,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -47983,7 +48104,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -48054,7 +48175,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -48125,7 +48246,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -48196,7 +48317,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -48267,7 +48388,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -48338,7 +48459,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -48409,7 +48530,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -48480,7 +48601,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -48551,7 +48672,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -48622,7 +48743,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -48693,7 +48814,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -48764,7 +48885,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -48835,7 +48956,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -48906,7 +49027,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -48977,7 +49098,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -49048,7 +49169,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -49119,7 +49240,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -49190,7 +49311,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -49241,7 +49362,7 @@
         <v>30</v>
       </c>
       <c r="R34" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>26</v>
@@ -49261,7 +49382,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -49393,6 +49514,14 @@
       </c>
       <c r="W36" s="17">
         <v>2.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="E37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -49413,10 +49542,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0FE9D5-A80F-41C9-AEC8-6E2C403BE377}">
-  <dimension ref="A2:W36"/>
+  <dimension ref="A2:W37"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49555,7 +49684,7 @@
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1">
         <v>1893</v>
@@ -49606,7 +49735,7 @@
         <v>38</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>34</v>
@@ -49626,7 +49755,7 @@
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>1893</v>
@@ -49697,7 +49826,7 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1">
         <v>1893</v>
@@ -49748,7 +49877,7 @@
         <v>26</v>
       </c>
       <c r="R7" s="24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>28</v>
@@ -49768,7 +49897,7 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1">
         <v>1893</v>
@@ -49839,7 +49968,7 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B9" s="1">
         <v>1893</v>
@@ -49910,7 +50039,7 @@
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1">
         <v>1893</v>
@@ -49967,7 +50096,7 @@
         <v>25</v>
       </c>
       <c r="T10" s="25" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="U10" s="1">
         <v>9</v>
@@ -49981,7 +50110,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1">
         <v>1893</v>
@@ -50052,7 +50181,7 @@
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1">
         <v>1893</v>
@@ -50103,7 +50232,7 @@
         <v>25</v>
       </c>
       <c r="R12" s="24" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>25</v>
@@ -50123,7 +50252,7 @@
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1">
         <v>1893</v>
@@ -50194,7 +50323,7 @@
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1">
         <v>1893</v>
@@ -50242,7 +50371,7 @@
         <v>80</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R14" s="1">
         <v>7</v>
@@ -50265,7 +50394,7 @@
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1">
         <v>1893</v>
@@ -50336,7 +50465,7 @@
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1">
         <v>1893</v>
@@ -50407,7 +50536,7 @@
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1">
         <v>1893</v>
@@ -50458,7 +50587,7 @@
         <v>33</v>
       </c>
       <c r="R17" s="24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>26</v>
@@ -50478,7 +50607,7 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1">
         <v>1893</v>
@@ -50549,7 +50678,7 @@
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1">
         <v>1893</v>
@@ -50620,7 +50749,7 @@
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1">
         <v>1893</v>
@@ -50677,7 +50806,7 @@
         <v>29</v>
       </c>
       <c r="T20" s="25" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="U20" s="1">
         <v>6</v>
@@ -50691,7 +50820,7 @@
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1">
         <v>1893</v>
@@ -50762,7 +50891,7 @@
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1">
         <v>1893</v>
@@ -50813,7 +50942,7 @@
         <v>33</v>
       </c>
       <c r="R22" s="24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>29</v>
@@ -50833,7 +50962,7 @@
     </row>
     <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1">
         <v>1893</v>
@@ -50884,13 +51013,13 @@
         <v>31</v>
       </c>
       <c r="R23" s="24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T23" s="25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="U23" s="1">
         <v>10</v>
@@ -50904,7 +51033,7 @@
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B24" s="1">
         <v>1893</v>
@@ -50975,7 +51104,7 @@
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1">
         <v>1893</v>
@@ -51026,7 +51155,7 @@
         <v>27</v>
       </c>
       <c r="R25" s="24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>27</v>
@@ -51046,7 +51175,7 @@
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1">
         <v>1893</v>
@@ -51097,7 +51226,7 @@
         <v>30</v>
       </c>
       <c r="R26" s="24" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>25</v>
@@ -51117,7 +51246,7 @@
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1">
         <v>1893</v>
@@ -51188,7 +51317,7 @@
     </row>
     <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1">
         <v>1893</v>
@@ -51245,7 +51374,7 @@
         <v>26</v>
       </c>
       <c r="T28" s="25" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="U28" s="1">
         <v>10</v>
@@ -51259,7 +51388,7 @@
     </row>
     <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1">
         <v>1893</v>
@@ -51316,7 +51445,7 @@
         <v>23</v>
       </c>
       <c r="T29" s="25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="U29" s="1">
         <v>3</v>
@@ -51330,7 +51459,7 @@
     </row>
     <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1">
         <v>1893</v>
@@ -51401,7 +51530,7 @@
     </row>
     <row r="31" spans="1:23" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1">
         <v>1893</v>
@@ -51458,7 +51587,7 @@
         <v>30</v>
       </c>
       <c r="T31" s="25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="U31" s="1">
         <v>10</v>
@@ -51472,7 +51601,7 @@
     </row>
     <row r="32" spans="1:23" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1">
         <v>1893</v>
@@ -51543,7 +51672,7 @@
     </row>
     <row r="33" spans="1:23" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1">
         <v>1893</v>
@@ -51614,7 +51743,7 @@
     </row>
     <row r="34" spans="1:23" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1">
         <v>1893</v>
@@ -51685,7 +51814,7 @@
     </row>
     <row r="35" spans="1:23" s="1" customFormat="1">
       <c r="A35" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B35" s="1">
         <v>1893</v>
@@ -51736,7 +51865,7 @@
         <v>28</v>
       </c>
       <c r="R35" s="24" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="S35" s="8" t="s">
         <v>26</v>
@@ -51817,6 +51946,14 @@
       </c>
       <c r="W36" s="17">
         <v>4.92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -51836,26 +51973,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-40206</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-40206</Url>
-      <Description>H7Q62YT2XCZT-908671883-40206</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -51905,18 +52022,29 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-40206</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-40206</Url>
+      <Description>H7Q62YT2XCZT-908671883-40206</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a11f18feb37c278a512788b2e5a06b2f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d97308c79b2bb5835a55e257627f43a5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a4f56144ecba6ff6a413504c0ec2b8c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dcae21ac380e060fa17aa32c946feec" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
     <xsd:import namespace="502a79df-4f52-4757-ac2f-753e065f4c93"/>
@@ -51948,6 +52076,8 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -52046,6 +52176,16 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="29" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="30" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="31" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -52215,18 +52355,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A066F70-A025-48BD-AF6A-7BD50546803B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A066F70-A025-48BD-AF6A-7BD50546803B}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE3BCE-CD69-4D27-9320-ABCA1FB21DB8}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2495F1D5-704C-4305-9EFF-68768FBABE7D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
 </file>